--- a/graph_generation/results_prelim/palm/level_10/k_1.xlsx
+++ b/graph_generation/results_prelim/palm/level_10/k_1.xlsx
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -48,35 +48,31 @@
 Solution: Path from A to I: A -&gt; G -&gt; H -&gt; I
 Path from I to J: I -&gt; J
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node C, and then from node node C to node 17? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R
- A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 2 2 0 0 0 0 0 0 0 0 0 5
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 2 2 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
- R 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 5 0
+What is the least cost path to travel first from node A to node D, and then from node node D to node N? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 3 4 4 0 0 2 0 0 0 4 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 4 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 5 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ G 2 0 0 0 0 0 0 1 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 5 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 5 0 0 0 0 0 1
+ K 4 0 0 0 0 0 0 0 0 0 0 3 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 2 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ N 0 0 0 0 0 0 0 0 0 1 0 0 2 0
     </t>
   </si>
   <si>
-    <t>Path from A to C: A -&gt; B -&gt; C
-Path from C to R: C -&gt; D -&gt; F -&gt; R</t>
-  </si>
-  <si>
-    <t>Path from 0 to C: 0 -&gt; C
-Path from C to 17: C -&gt; R -&gt; 17</t>
+    <t>Path from A to D: A -&gt; D
+Path from D to N: D -&gt; A -&gt; G -&gt; H -&gt; J -&gt; N</t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; D
+Path from D to N: D -&gt; N</t>
   </si>
   <si>
     <t>Wrong</t>
